--- a/excel/内容表格.xlsx
+++ b/excel/内容表格.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940" activeTab="1"/>
+    <workbookView windowHeight="17775" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="文档说明" sheetId="1" r:id="rId1"/>
@@ -14,15 +14,29 @@
     <sheet name="转载句子" sheetId="5" r:id="rId5"/>
     <sheet name="我的说说" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="445">
-  <si>
-    <t xml:space="preserve">添加新文章时，是否新增一栏填写任意字符，未处理文件名填写typora导出的html文
-件名，运行脚本后会自动生成文件并将其删除
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="458">
+  <si>
+    <t xml:space="preserve">添加新文章时，填写未处理文件名填写typora导出的html文
+件名，带格式，不用带路径，typora导出的html文
+件放在markdown目录下，运行脚本后会自动生成文件并将其删除
 </t>
   </si>
   <si>
@@ -56,558 +70,597 @@
     <t>图片链接</t>
   </si>
   <si>
+    <t>未处理文件名</t>
+  </si>
+  <si>
+    <t>《百年孤独》摘句</t>
+  </si>
+  <si>
+    <t>蒙大明</t>
+  </si>
+  <si>
+    <t>2020-03-14</t>
+  </si>
+  <si>
+    <t>我的文章</t>
+  </si>
+  <si>
+    <t>摘句</t>
+  </si>
+  <si>
+    <t>《百年孤独》，是哥伦比亚作家加西亚·马尔克斯创作的长篇小说，是其代表作，也是拉丁美洲魔幻现实主义文学的代表作，被誉为“再现拉丁美洲历史社会图景的鸿篇巨著”。本文为小说《百年孤独》的摘句。</t>
+  </si>
+  <si>
+    <t>../../../../myArticle/bainiangudu.html</t>
+  </si>
+  <si>
+    <t>https://s1.ax1x.com/2020/03/14/8Q3Sxg.jpg</t>
+  </si>
+  <si>
+    <t>《双城记》拾句</t>
+  </si>
+  <si>
+    <t>《双城记》是英国作家查尔斯·狄更斯所著的一部以法国大革命为背景所写成的长篇历史小说，首次出版于1859年。故事中将巴黎、伦敦两个大城市连结起来，围绕着曼马内特医生一家和以德发日夫妇为首的圣安东尼区展开故事。小说里描写了贵族如何败坏、如何残害百姓，人民心中积压对贵族的刻骨仇恨，导致了不可避免的法国大革命。书名中的“双城”指的是巴黎与伦敦</t>
+  </si>
+  <si>
+    <t>../../../../myArticle/shuangchengji.html</t>
+  </si>
+  <si>
+    <t>https://i.loli.net/2020/03/14/p24cduAkJLyN3XP.jpg</t>
+  </si>
+  <si>
+    <t>《三体》拾句</t>
+  </si>
+  <si>
+    <t>《三体》是刘慈欣创作的系列长篇科幻小说，由《三体》、《三体Ⅱ·黑暗森林》、《三体Ⅲ·死神永生》组成，第一部于2006年5月起在《科幻世界》杂志上连载，第二部于2008年5月首次出版，第三部则于2010年11月出版。 作品讲述了地球人类文明和三体文明的信息交流、生死搏杀及两个文明在宇宙中的兴衰历程。其第一部经过刘宇昆翻译后获得了第73届雨果奖最佳长篇小说奖 [1]  。</t>
+  </si>
+  <si>
+    <t>../../../../myArticle/santi.html</t>
+  </si>
+  <si>
+    <t>https://i.loli.net/2020/03/14/LrMcOZz2HJk1yuS.jpg</t>
+  </si>
+  <si>
+    <t>《人间失格》拾句</t>
+  </si>
+  <si>
+    <t>《人间失格》（又名《丧失为人的资格》）日本小说家太宰治创作的中篇小说，发表于1948年，是一部半自传体的小说。《人间失格》以“我”看到叶藏的三张照片后的感想开头，中间是叶藏的三篇手记，而三篇手记与照片对应，分别介绍了叶藏幼年、青年和壮年时代的经历，描述了叶藏是如何一步一步走向丧失为人资格的道路的。 [1] 作品中太宰治巧妙地将自己的人生与思想，隐藏于主角叶藏的人生遭遇，藉由叶藏的独白，窥探太宰治的内心世界——“充满了可耻的一生”。在发表该作品的同年，太宰治自杀身亡</t>
+  </si>
+  <si>
+    <t>../../../../myArticle/renjianshige.html</t>
+  </si>
+  <si>
+    <t>https://i.loli.net/2020/03/14/oh3Sdq6tzOw4E5p.jpg</t>
+  </si>
+  <si>
+    <t>《半生缘》读后感</t>
+  </si>
+  <si>
+    <t>读后感 张爱玲</t>
+  </si>
+  <si>
+    <t>《半生缘》是张爱玲第一部完整的长篇小说，原名《十八春》，该小说通过年轻人的婚姻的悲欢离合，揭示了社会和人性的方方面面。本文是我个人对这部小说的读后感。</t>
+  </si>
+  <si>
+    <t>../../../../myArticle/banshengyuan.html</t>
+  </si>
+  <si>
+    <t>https://s1.ax1x.com/2020/03/14/8QlvjJ.jpg</t>
+  </si>
+  <si>
+    <t>本站时光轴</t>
+  </si>
+  <si>
+    <t>2020-04-01</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>本站 时光轴</t>
+  </si>
+  <si>
+    <t>本站的日志，以时光轴的形式显示本站的更新进程。</t>
+  </si>
+  <si>
+    <t>../../../../about/timeline.html</t>
+  </si>
+  <si>
+    <t>https://s1.ax1x.com/2020/04/08/GWfl5D.jpg</t>
+  </si>
+  <si>
+    <t>我使用过的手机</t>
+  </si>
+  <si>
+    <t>2020-04-07</t>
+  </si>
+  <si>
+    <t>手机 我</t>
+  </si>
+  <si>
+    <t>我使用过的手机。</t>
+  </si>
+  <si>
+    <t>../../../../myArticle/myphone.html</t>
+  </si>
+  <si>
+    <t>https://s1.ax1x.com/2020/04/08/GWfUqP.jpg</t>
+  </si>
+  <si>
+    <t>我的日记公开</t>
+  </si>
+  <si>
+    <t>2020-08-01</t>
+  </si>
+  <si>
+    <t>日记</t>
+  </si>
+  <si>
+    <t>有一句话说得好，“正经人谁写日记？”。说实在的，我想绝大多数人写日记都不敢直面自己的内心，尽力烘托自己的长处，却不敢直面自身的丑陋，总是有选择地去写日记，反正我是这样。</t>
+  </si>
+  <si>
+    <t>../../../../myArticle/diarypassword.html</t>
+  </si>
+  <si>
+    <t>https://s1.ax1x.com/2020/08/23/dw05GD.jpg</t>
+  </si>
+  <si>
+    <t>健康是一切的基础</t>
+  </si>
+  <si>
+    <t>2020-08-23</t>
+  </si>
+  <si>
+    <t>健康</t>
+  </si>
+  <si>
+    <t>健康的身体就是一笔无价之宝，只不过是你没有失去你才没有意识到他的珍贵而已。永远不要等失去了才学会去珍惜，愿每个人人生都身体健康。</t>
+  </si>
+  <si>
+    <t>../../../../myArticle/jiankang.html</t>
+  </si>
+  <si>
+    <t>https://s1.ax1x.com/2020/08/23/d03nXT.jpg</t>
+  </si>
+  <si>
+    <t>博客将使用Markdown编辑器来编写</t>
+  </si>
+  <si>
+    <t>2020-10-26</t>
+  </si>
+  <si>
+    <t>Markdown</t>
+  </si>
+  <si>
+    <t>Markdown是一种可以使用普通文本编辑器编写的标记语言，通过简单的标记语法，它可以使普通文本内容具有一定的格式。它允许人们使用易读易写的纯文本格式编写文档，然后转换成格式丰富的HTML页面,简化了博客的编写流程。</t>
+  </si>
+  <si>
+    <t>../../../../myArticle/20201026.html</t>
+  </si>
+  <si>
+    <t>https://s1.ax1x.com/2020/10/29/BGDBmF.jpg</t>
+  </si>
+  <si>
+    <t>2021届秋招回忆录</t>
+  </si>
+  <si>
+    <t>2020-11-06</t>
+  </si>
+  <si>
+    <t>秋招 求职</t>
+  </si>
+  <si>
+    <t>写下这篇文章的时间是十月上旬（2020.11.05），2021届秋招基本已经要结束了，秋招这段时间也经历了许多。因此，有必要对极有可能是人生唯一一次的秋招进行一次总结与回顾。</t>
+  </si>
+  <si>
+    <t>../../../../myArticle/20201106.html</t>
+  </si>
+  <si>
+    <t>https://s1.ax1x.com/2020/11/06/BhoadK.jpg</t>
+  </si>
+  <si>
+    <t>logo的设计过程</t>
+  </si>
+  <si>
+    <t>2020-11-19</t>
+  </si>
+  <si>
+    <t>logo</t>
+  </si>
+  <si>
+    <t>之前设计的logo是只是一个艺术字的“明”，比较简单，而且没有什么设计感。所以最近重新设计了自己的logo，因为我自己本身没有学习svg更加没有艺术细胞，所以经历踩了很多的坑。因此在这里把经历和方法写一写，免得以后重蹈覆辙。</t>
+  </si>
+  <si>
+    <t>../../../../myArticle/20201119.html</t>
+  </si>
+  <si>
+    <t>https://s3.ax1x.com/2020/11/19/DKvHMR.jpg</t>
+  </si>
+  <si>
+    <t>我有一个大胆的想法。。。</t>
+  </si>
+  <si>
+    <t>2020-12-20</t>
+  </si>
+  <si>
+    <t>建站 博客</t>
+  </si>
+  <si>
+    <t>最近在学Java和数据库，在GitHub pages的静态页面无法支持后端的编程语言，而且静态站点的局限太多，同时我还看到了我的名字拼音域名：mengdaming.com并没有被注册，而且长远来看我还是有学习互联网的需求的，并且虚拟主机的价格好像我还是可以接受的。所以我就产生了一个大胆的想法，那就是：自己动手做一个完全自主的博客系统！！！</t>
+  </si>
+  <si>
+    <t>../../../../myArticle/20201220.html</t>
+  </si>
+  <si>
+    <t>https://s3.ax1x.com/2020/12/20/rdEE1e.jpg</t>
+  </si>
+  <si>
+    <t>至简博客概述</t>
+  </si>
+  <si>
+    <t>2021-01-19</t>
+  </si>
+  <si>
+    <t>博客</t>
+  </si>
+  <si>
+    <t>博客网站写完了，为了做个记录，同时便于日后的操作，在此做个关于博客的概述。主要包括以下内容：本站文章的分类、本站文件的分布、结构、本站的发表文章指南</t>
+  </si>
+  <si>
+    <t>../../../../about/summary.html</t>
+  </si>
+  <si>
+    <t>https://s3.ax1x.com/2020/11/18/DneSpV.png</t>
+  </si>
+  <si>
+    <t>近期反思：少即是多</t>
+  </si>
+  <si>
+    <t>2021-01-24</t>
+  </si>
+  <si>
+    <t>反思</t>
+  </si>
+  <si>
+    <t>本文写在2020年12月24日，自12月1日来到海宁海微电子科技有限公司实习也有将近一个月了，公司的事暂且不谈，简而言之就是带我们的那个人很忙，直接的结果就是我们很闲（工作方面）。但是我自己本来要搞安卓开发的（论文），结果到头来只学了一部分，却忙于建设自己的博客，浪费了很多时间。想来我毕竟是个搞嵌入式方面的人，所以还是把重心放到自己的主业上面才好。结合近况，也来总结一下自己最近的体会和想法，顺便规划一下论文及嵌入式这两大方面的事情。</t>
+  </si>
+  <si>
+    <t>../../../../myArticle/20210124.html</t>
+  </si>
+  <si>
+    <t>https://s3.ax1x.com/2021/02/03/yKhTd1.jpg</t>
+  </si>
+  <si>
+    <t>博客终于完成了</t>
+  </si>
+  <si>
+    <t>2021-01-25</t>
+  </si>
+  <si>
+    <t>博客 命名</t>
+  </si>
+  <si>
+    <t>2021年1月25日23点12分，断断续续创作的博客终于全部都完成了！！！</t>
+  </si>
+  <si>
+    <t>../../../../myArticle/20210125.html</t>
+  </si>
+  <si>
+    <t>https://s3.ax1x.com/2021/02/03/yK97QJ.jpg</t>
+  </si>
+  <si>
+    <t>2021年春招总结</t>
+  </si>
+  <si>
+    <t>2021-05-04</t>
+  </si>
+  <si>
+    <t>春招 求职</t>
+  </si>
+  <si>
+    <t>五一没去玩（人太多），闲来无事，所以对前段时间的春招进行一下总结。</t>
+  </si>
+  <si>
+    <t>../../../../myArticle/20210504.html</t>
+  </si>
+  <si>
+    <t>https://z3.ax1x.com/2021/05/04/gndDgS.jpg</t>
+  </si>
+  <si>
+    <t>记账软件对比</t>
+  </si>
+  <si>
+    <t>2021-05-18</t>
+  </si>
+  <si>
+    <t>记账 理财</t>
+  </si>
+  <si>
+    <t>之前为了记账，通过一番比较选择了口袋记账，这几天发现账单少了两百块，因为对口袋记账有些许不满，所以我又陷入了寻找记账APP的纠结之路。下面我通过对大多数的APP的下载使用后的体验，让广大像我一样的选择困难症患者提供较好的选择。</t>
+  </si>
+  <si>
+    <t>../../../../myArticle/20210518.html</t>
+  </si>
+  <si>
+    <t>https://z3.ax1x.com/2021/05/18/ghBdGd.jpg</t>
+  </si>
+  <si>
+    <t>本科毕业设计（论文）记录</t>
+  </si>
+  <si>
+    <t>2020-11-07</t>
+  </si>
+  <si>
+    <t>毕业设计</t>
+  </si>
+  <si>
+    <t>本科毕业设计已经开始了，我的选题是饶毅恒老师的基于Android的模拟单片机控制系统，课题是偏向于嵌入式软件的。估计要经历较长的时间，也要付出较多的心力。本篇博客将全程记录毕业设计的大致过程，致于需要学习的Java和Android开发则单独讲述，本篇博客不涉及技术方面的内容。</t>
+  </si>
+  <si>
+    <t>../../../../myArticle/20201107.html</t>
+  </si>
+  <si>
+    <t>https://s1.ax1x.com/2020/11/07/BInmm4.jpg</t>
+  </si>
+  <si>
+    <t>typora样式参考</t>
+  </si>
+  <si>
+    <t>2020-10-27</t>
+  </si>
+  <si>
+    <t>Typora</t>
+  </si>
+  <si>
+    <t>Typora扩展了Markdown的功能（如表格、脚注、内嵌HTML等等），以使让Markdown转换并导出更多的格式，其中就有我需要的HTML，通过在Typora上面写文档并导出HTML，可以方便的编写博客。简而言之，Typora能让你如在Word上面写文档一样写自己的网页。</t>
+  </si>
+  <si>
+    <t>../../../../myArticle/20201027.html</t>
+  </si>
+  <si>
+    <t>https://s1.ax1x.com/2020/10/29/BGD2Sx.jpg</t>
+  </si>
+  <si>
+    <t>C语言中的strlen和sizeof</t>
+  </si>
+  <si>
+    <t>2020-11-08</t>
+  </si>
+  <si>
+    <t>C语言</t>
+  </si>
+  <si>
+    <t>strlen和sizeof是平时及面试中是十分常见的，本文将讲述C语言中strlen和sizeof的用法和区别，并写出两者的区别和常见的错误，目的是是自己更加了解strlen和sizeof的使用。</t>
+  </si>
+  <si>
+    <t>../../../../myArticle/20201108.html</t>
+  </si>
+  <si>
+    <t>https://s1.ax1x.com/2020/11/08/Boq6PI.png</t>
+  </si>
+  <si>
+    <t>Java基础</t>
+  </si>
+  <si>
+    <t>2020-11-10</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>因为毕业设计需要Java，所以我最近在学习Java。这篇博客主要写的一些Java的基础，内容比较简单，主要写一些Java的基础中与C语言不同的点。</t>
+  </si>
+  <si>
+    <t>../../../../myArticle/20201110.html</t>
+  </si>
+  <si>
+    <t>https://i.loli.net/2020/11/10/quwGS8UEbFWVRci.jpg</t>
+  </si>
+  <si>
+    <t>Java面向对象（基础）</t>
+  </si>
+  <si>
+    <t>2020-11-15</t>
+  </si>
+  <si>
+    <t>java</t>
+  </si>
+  <si>
+    <t>本文总结了一些Java的面向对象的内容，主要总结自己学习过程中觉得重要的知识点！</t>
+  </si>
+  <si>
+    <t>../../../../myArticle/20201115.html</t>
+  </si>
+  <si>
+    <t>https://s3.ax1x.com/2020/11/19/DMpuSe.jpg</t>
+  </si>
+  <si>
+    <t>C语言中的头文件及编译过程</t>
+  </si>
+  <si>
+    <t>2021-02-09</t>
+  </si>
+  <si>
+    <t>本文将详解C语言中的头文件（.h）和源文件（.c）的联系与使用，并详解编译器是怎样处理这些文件的，C语言的编译过程的详解。预处理命令不是C语言语句，不用加分号。本质上，预处理命令在预处理时只是进行文本替换。</t>
+  </si>
+  <si>
+    <t>../../../../myArticle/20210209.html</t>
+  </si>
+  <si>
+    <t>https://i.loli.net/2021/02/09/uxwo4g5tm8BerXs.jpg</t>
+  </si>
+  <si>
+    <t>C语言中的常见问题</t>
+  </si>
+  <si>
+    <t>2021-04-29</t>
+  </si>
+  <si>
+    <t>本文将记录C语言中的重点和易错点，而且这些内容都是经常使用的。学会并记录是十分必要的，许多企业的笔试面试都会涉及其中的内容。</t>
+  </si>
+  <si>
+    <t>../../../../myArticle/20210429.html</t>
+  </si>
+  <si>
+    <t>https://z3.ax1x.com/2021/04/29/gkY0Qf.jpg</t>
+  </si>
+  <si>
+    <t>C语言中的指针</t>
+  </si>
+  <si>
+    <t>2021-04-30</t>
+  </si>
+  <si>
+    <t>在Ｃ语言中，指针是非常重要知识点，本文将简单介绍一下其内容。Ｃ语言中用一个变量来存放指针，这种变量称为指针变量。因此，一个指针变量的值就是某个内存单元的地址或称为某内存单元的指针。</t>
+  </si>
+  <si>
+    <t>../../../../myArticle/20210430.html</t>
+  </si>
+  <si>
+    <t>https://z3.ax1x.com/2021/04/30/gA6fFx.jpg</t>
+  </si>
+  <si>
+    <t>C语言基础</t>
+  </si>
+  <si>
+    <t>记录C语言基础中的难点和易错点，但不包括多维数组、指针、结构体等难点。</t>
+  </si>
+  <si>
+    <t>../../../../myArticle/20210430-1.html</t>
+  </si>
+  <si>
+    <t>https://z3.ax1x.com/2021/04/30/gA64fK.jpg</t>
+  </si>
+  <si>
+    <t>Java的多线程</t>
+  </si>
+  <si>
+    <t>Java 多线程</t>
+  </si>
+  <si>
+    <t>Java为多线程编程提供了内置的支持，这使得程序员可以充分利用CPU，让程序的执行效率更高。本文将从零开始学习总结Java的多线程知识。</t>
+  </si>
+  <si>
+    <t>../../../../myArticle/20210430-2.html</t>
+  </si>
+  <si>
+    <t>https://z3.ax1x.com/2021/05/01/gVmvbn.jpg</t>
+  </si>
+  <si>
+    <t>Java数据库编程</t>
+  </si>
+  <si>
+    <t>Java 数据库</t>
+  </si>
+  <si>
+    <t>JDBC（Java Database Connectivity，Java数据库连接），是一种与平台无关的用于执行SQL语句的标准Java API，便于实现多种关系型数据库的统一操作。本文将记录Java与数据库间的操作，提别是MySQL数据库的连接与操作。</t>
+  </si>
+  <si>
+    <t>../../../../myArticle/20210430-3.html</t>
+  </si>
+  <si>
+    <t>https://z3.ax1x.com/2021/05/01/gVnFv4.jpg</t>
+  </si>
+  <si>
+    <t>Java网络编程</t>
+  </si>
+  <si>
+    <t>Java 网络</t>
+  </si>
+  <si>
+    <t>Java的网络编程提供了两种通信协议: TCP (传输控制协议)和UDP ( 数据报协议)。 本章将就这两种实现进行讲解，在讲解中也将融合之前讲解的I0及多线程技术进行网络程序的开发。</t>
+  </si>
+  <si>
+    <t>../../../../myArticle/20210430-4.html</t>
+  </si>
+  <si>
+    <t>https://z3.ax1x.com/2021/05/01/gVnVbR.jpg</t>
+  </si>
+  <si>
+    <t>如何在vscode优雅地使用Git来提交到Github</t>
+  </si>
+  <si>
+    <t>2022-02-19</t>
+  </si>
+  <si>
+    <t>工具</t>
+  </si>
+  <si>
+    <t>Git Github vscode</t>
+  </si>
+  <si>
+    <t>vscode结合Git来管理Github代码十分方便，本文简述如何对其进行配置。</t>
+  </si>
+  <si>
+    <t>../../../../myArticle/20220219.html</t>
+  </si>
+  <si>
+    <t>https://s4.ax1x.com/2022/02/19/Hbsvin.jpg</t>
+  </si>
+  <si>
+    <t>随便写点</t>
+  </si>
+  <si>
+    <t>2022-07-30</t>
+  </si>
+  <si>
+    <t>杂谈</t>
+  </si>
+  <si>
+    <t>信用 编程</t>
+  </si>
+  <si>
+    <t>距离上次写博客似乎也过去了将近半年，当初是打算起码一个月写一次的。但理想与现实还是有巨大差距的，想来普通人的近乎毫无波澜的人生似乎也没什么可写的，也难怪都说“正经人谁写日记？”</t>
+  </si>
+  <si>
+    <t>../../../../myArticle/20220730.html</t>
+  </si>
+  <si>
+    <t>https://gimg2.baidu.com/image_search/src=http%3A%2F%2Fcdnimg103.lizhi.fm%2Faudio_cover%2F2017%2F07%2F02%2F2610871928115860999_320x320.jpg&amp;refer=http%3A%2F%2Fcdnimg103.lizhi.fm&amp;app=2002&amp;size=f9999,10000&amp;q=a80&amp;n=0&amp;g=0n&amp;fmt=auto?sec=1661788778&amp;t=f98aba966cb7d7a538146e6b6524b012</t>
+  </si>
+  <si>
+    <t>春日漫话</t>
+  </si>
+  <si>
+    <t>2023-02-26</t>
+  </si>
+  <si>
+    <t>人性 情感 职场</t>
+  </si>
+  <si>
+    <t>最近感悟和想法很多，总感觉应该写一篇随笔来记录一下。但多次拖延症发作，经过多次强迫症发作，最终还是开始了。说来也可笑，我在中学时期有很长的一段时间里都梦想成为一名作家或者诗人，但是我也只是喜欢看点小说，而且文笔也一言难尽，现在甚至失去了写作的欲望，甚至一点日记或者随笔都懒得写。话不多说，接下来我就来“侃侃而谈”一番吧。</t>
+  </si>
+  <si>
+    <t>../../../../myArticle/春日漫话.html</t>
+  </si>
+  <si>
+    <t>https://img95.699pic.com/photo/40099/0313.jpg_wh860.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>度日如年的半周</t>
+  </si>
+  <si>
+    <t>2024-04-20</t>
+  </si>
+  <si>
+    <t>情感 爱情</t>
+  </si>
+  <si>
+    <t>这件事竟然不知道如何说起，“失恋”？恋都没恋，谈何失恋呢？单恋罢了。起因是周二晚上睡觉前喜欢的女孩回老家发展了，那一晚我几乎彻夜未眠，最终还是鼓起勇气向她告白，虽然知道这只是一场徒劳，如果不表白，可能会后悔一辈子。其实我只和她见过两次，但我好像第一次见到她就喜欢上她了，虽然不想承认。但是，我也不敢主动去联系她，但是会在网络上关注她的任何一点动态，期待与她的下一次相见。</t>
+  </si>
+  <si>
+    <t>../../../../myArticle/度日如年的半周.html</t>
+  </si>
+  <si>
+    <t>https://ts1.cn.mm.bing.net/th/id/R-C.fdf65b06cf2650f2c98165d428bddac3?rik=GRWolzmfzXd55g&amp;riu=http%3a%2f%2fseopic.699pic.com%2fphoto%2f40010%2f1157.jpg_wh1200.jpg&amp;ehk=L45d%2bBT7MTzrBkS2l%2be828Lasd9xi5n6MtdpRPAPMiM%3d&amp;risl=&amp;pid=ImgRaw&amp;r=0</t>
+  </si>
+  <si>
     <t>是否新增</t>
   </si>
   <si>
-    <t>未处理文件名</t>
-  </si>
-  <si>
-    <t>《百年孤独》摘句</t>
-  </si>
-  <si>
-    <t>蒙大明</t>
-  </si>
-  <si>
-    <t>2020-03-14</t>
-  </si>
-  <si>
-    <t>我的文章</t>
-  </si>
-  <si>
-    <t>摘句</t>
-  </si>
-  <si>
-    <t>《百年孤独》，是哥伦比亚作家加西亚·马尔克斯创作的长篇小说，是其代表作，也是拉丁美洲魔幻现实主义文学的代表作，被誉为“再现拉丁美洲历史社会图景的鸿篇巨著”。本文为小说《百年孤独》的摘句。</t>
-  </si>
-  <si>
-    <t>../../../../myArticle/bainiangudu.html</t>
-  </si>
-  <si>
-    <t>https://s1.ax1x.com/2020/03/14/8Q3Sxg.jpg</t>
-  </si>
-  <si>
-    <t>《双城记》拾句</t>
-  </si>
-  <si>
-    <t>《双城记》是英国作家查尔斯·狄更斯所著的一部以法国大革命为背景所写成的长篇历史小说，首次出版于1859年。故事中将巴黎、伦敦两个大城市连结起来，围绕着曼马内特医生一家和以德发日夫妇为首的圣安东尼区展开故事。小说里描写了贵族如何败坏、如何残害百姓，人民心中积压对贵族的刻骨仇恨，导致了不可避免的法国大革命。书名中的“双城”指的是巴黎与伦敦</t>
-  </si>
-  <si>
-    <t>../../../../myArticle/shuangchengji.html</t>
-  </si>
-  <si>
-    <t>https://i.loli.net/2020/03/14/p24cduAkJLyN3XP.jpg</t>
-  </si>
-  <si>
-    <t>《三体》拾句</t>
-  </si>
-  <si>
-    <t>《三体》是刘慈欣创作的系列长篇科幻小说，由《三体》、《三体Ⅱ·黑暗森林》、《三体Ⅲ·死神永生》组成，第一部于2006年5月起在《科幻世界》杂志上连载，第二部于2008年5月首次出版，第三部则于2010年11月出版。 作品讲述了地球人类文明和三体文明的信息交流、生死搏杀及两个文明在宇宙中的兴衰历程。其第一部经过刘宇昆翻译后获得了第73届雨果奖最佳长篇小说奖 [1]  。</t>
-  </si>
-  <si>
-    <t>../../../../myArticle/santi.html</t>
-  </si>
-  <si>
-    <t>https://i.loli.net/2020/03/14/LrMcOZz2HJk1yuS.jpg</t>
-  </si>
-  <si>
-    <t>《人间失格》拾句</t>
-  </si>
-  <si>
-    <t>《人间失格》（又名《丧失为人的资格》）日本小说家太宰治创作的中篇小说，发表于1948年，是一部半自传体的小说。《人间失格》以“我”看到叶藏的三张照片后的感想开头，中间是叶藏的三篇手记，而三篇手记与照片对应，分别介绍了叶藏幼年、青年和壮年时代的经历，描述了叶藏是如何一步一步走向丧失为人资格的道路的。 [1] 作品中太宰治巧妙地将自己的人生与思想，隐藏于主角叶藏的人生遭遇，藉由叶藏的独白，窥探太宰治的内心世界——“充满了可耻的一生”。在发表该作品的同年，太宰治自杀身亡</t>
-  </si>
-  <si>
-    <t>../../../../myArticle/renjianshige.html</t>
-  </si>
-  <si>
-    <t>https://i.loli.net/2020/03/14/oh3Sdq6tzOw4E5p.jpg</t>
-  </si>
-  <si>
-    <t>《半生缘》读后感</t>
-  </si>
-  <si>
-    <t>读后感 张爱玲</t>
-  </si>
-  <si>
-    <t>《半生缘》是张爱玲第一部完整的长篇小说，原名《十八春》，该小说通过年轻人的婚姻的悲欢离合，揭示了社会和人性的方方面面。本文是我个人对这部小说的读后感。</t>
-  </si>
-  <si>
-    <t>../../../../myArticle/banshengyuan.html</t>
-  </si>
-  <si>
-    <t>https://s1.ax1x.com/2020/03/14/8QlvjJ.jpg</t>
-  </si>
-  <si>
-    <t>本站时光轴</t>
-  </si>
-  <si>
-    <t>2020-04-01</t>
-  </si>
-  <si>
-    <t>其他</t>
-  </si>
-  <si>
-    <t>本站 时光轴</t>
-  </si>
-  <si>
-    <t>本站的日志，以时光轴的形式显示本站的更新进程。</t>
-  </si>
-  <si>
-    <t>../../../../about/timeline.html</t>
-  </si>
-  <si>
-    <t>https://s1.ax1x.com/2020/04/08/GWfl5D.jpg</t>
-  </si>
-  <si>
-    <t>我使用过的手机</t>
-  </si>
-  <si>
-    <t>2020-04-07</t>
-  </si>
-  <si>
-    <t>手机 我</t>
-  </si>
-  <si>
-    <t>我使用过的手机。</t>
-  </si>
-  <si>
-    <t>../../../../myArticle/myphone.html</t>
-  </si>
-  <si>
-    <t>https://s1.ax1x.com/2020/04/08/GWfUqP.jpg</t>
-  </si>
-  <si>
-    <t>我的日记公开</t>
-  </si>
-  <si>
-    <t>2020-08-01</t>
-  </si>
-  <si>
-    <t>日记</t>
-  </si>
-  <si>
-    <t>有一句话说得好，“正经人谁写日记？”。说实在的，我想绝大多数人写日记都不敢直面自己的内心，尽力烘托自己的长处，却不敢直面自身的丑陋，总是有选择地去写日记，反正我是这样。</t>
-  </si>
-  <si>
-    <t>../../../../myArticle/diarypassword.html</t>
-  </si>
-  <si>
-    <t>https://s1.ax1x.com/2020/08/23/dw05GD.jpg</t>
-  </si>
-  <si>
-    <t>健康是一切的基础</t>
-  </si>
-  <si>
-    <t>2020-08-23</t>
-  </si>
-  <si>
-    <t>健康</t>
-  </si>
-  <si>
-    <t>健康的身体就是一笔无价之宝，只不过是你没有失去你才没有意识到他的珍贵而已。永远不要等失去了才学会去珍惜，愿每个人人生都身体健康。</t>
-  </si>
-  <si>
-    <t>../../../../myArticle/jiankang.html</t>
-  </si>
-  <si>
-    <t>https://s1.ax1x.com/2020/08/23/d03nXT.jpg</t>
-  </si>
-  <si>
-    <t>博客将使用Markdown编辑器来编写</t>
-  </si>
-  <si>
-    <t>2020-10-26</t>
-  </si>
-  <si>
-    <t>Markdown</t>
-  </si>
-  <si>
-    <t>Markdown是一种可以使用普通文本编辑器编写的标记语言，通过简单的标记语法，它可以使普通文本内容具有一定的格式。它允许人们使用易读易写的纯文本格式编写文档，然后转换成格式丰富的HTML页面,简化了博客的编写流程。</t>
-  </si>
-  <si>
-    <t>../../../../myArticle/20201026.html</t>
-  </si>
-  <si>
-    <t>https://s1.ax1x.com/2020/10/29/BGDBmF.jpg</t>
-  </si>
-  <si>
-    <t>2021届秋招回忆录</t>
-  </si>
-  <si>
-    <t>2020-11-06</t>
-  </si>
-  <si>
-    <t>秋招 求职</t>
-  </si>
-  <si>
-    <t>写下这篇文章的时间是十月上旬（2020.11.05），2021届秋招基本已经要结束了，秋招这段时间也经历了许多。因此，有必要对极有可能是人生唯一一次的秋招进行一次总结与回顾。</t>
-  </si>
-  <si>
-    <t>../../../../myArticle/20201106.html</t>
-  </si>
-  <si>
-    <t>https://s1.ax1x.com/2020/11/06/BhoadK.jpg</t>
-  </si>
-  <si>
-    <t>logo的设计过程</t>
-  </si>
-  <si>
-    <t>2020-11-19</t>
-  </si>
-  <si>
-    <t>logo</t>
-  </si>
-  <si>
-    <t>之前设计的logo是只是一个艺术字的“明”，比较简单，而且没有什么设计感。所以最近重新设计了自己的logo，因为我自己本身没有学习svg更加没有艺术细胞，所以经历踩了很多的坑。因此在这里把经历和方法写一写，免得以后重蹈覆辙。</t>
-  </si>
-  <si>
-    <t>../../../../myArticle/20201119.html</t>
-  </si>
-  <si>
-    <t>https://s3.ax1x.com/2020/11/19/DKvHMR.jpg</t>
-  </si>
-  <si>
-    <t>我有一个大胆的想法。。。</t>
-  </si>
-  <si>
-    <t>2020-12-20</t>
-  </si>
-  <si>
-    <t>建站 博客</t>
-  </si>
-  <si>
-    <t>最近在学Java和数据库，在GitHub pages的静态页面无法支持后端的编程语言，而且静态站点的局限太多，同时我还看到了我的名字拼音域名：mengdaming.com并没有被注册，而且长远来看我还是有学习互联网的需求的，并且虚拟主机的价格好像我还是可以接受的。所以我就产生了一个大胆的想法，那就是：自己动手做一个完全自主的博客系统！！！</t>
-  </si>
-  <si>
-    <t>../../../../myArticle/20201220.html</t>
-  </si>
-  <si>
-    <t>https://s3.ax1x.com/2020/12/20/rdEE1e.jpg</t>
-  </si>
-  <si>
-    <t>至简博客概述</t>
-  </si>
-  <si>
-    <t>2021-01-19</t>
-  </si>
-  <si>
-    <t>博客</t>
-  </si>
-  <si>
-    <t>博客网站写完了，为了做个记录，同时便于日后的操作，在此做个关于博客的概述。主要包括以下内容：本站文章的分类、本站文件的分布、结构、本站的发表文章指南</t>
-  </si>
-  <si>
-    <t>../../../../about/summary.html</t>
-  </si>
-  <si>
-    <t>https://s3.ax1x.com/2020/11/18/DneSpV.png</t>
-  </si>
-  <si>
-    <t>近期反思：少即是多</t>
-  </si>
-  <si>
-    <t>2021-01-24</t>
-  </si>
-  <si>
-    <t>反思</t>
-  </si>
-  <si>
-    <t>本文写在2020年12月24日，自12月1日来到海宁海微电子科技有限公司实习也有将近一个月了，公司的事暂且不谈，简而言之就是带我们的那个人很忙，直接的结果就是我们很闲（工作方面）。但是我自己本来要搞安卓开发的（论文），结果到头来只学了一部分，却忙于建设自己的博客，浪费了很多时间。想来我毕竟是个搞嵌入式方面的人，所以还是把重心放到自己的主业上面才好。结合近况，也来总结一下自己最近的体会和想法，顺便规划一下论文及嵌入式这两大方面的事情。</t>
-  </si>
-  <si>
-    <t>../../../../myArticle/20210124.html</t>
-  </si>
-  <si>
-    <t>https://s3.ax1x.com/2021/02/03/yKhTd1.jpg</t>
-  </si>
-  <si>
-    <t>博客终于完成了</t>
-  </si>
-  <si>
-    <t>2021-01-25</t>
-  </si>
-  <si>
-    <t>博客 命名</t>
-  </si>
-  <si>
-    <t>2021年1月25日23点12分，断断续续创作的博客终于全部都完成了！！！</t>
-  </si>
-  <si>
-    <t>../../../../myArticle/20210125.html</t>
-  </si>
-  <si>
-    <t>https://s3.ax1x.com/2021/02/03/yK97QJ.jpg</t>
-  </si>
-  <si>
-    <t>2021年春招总结</t>
-  </si>
-  <si>
-    <t>2021-05-04</t>
-  </si>
-  <si>
-    <t>春招 求职</t>
-  </si>
-  <si>
-    <t>五一没去玩（人太多），闲来无事，所以对前段时间的春招进行一下总结。</t>
-  </si>
-  <si>
-    <t>../../../../myArticle/20210504.html</t>
-  </si>
-  <si>
-    <t>https://z3.ax1x.com/2021/05/04/gndDgS.jpg</t>
-  </si>
-  <si>
-    <t>记账软件对比</t>
-  </si>
-  <si>
-    <t>2021-05-18</t>
-  </si>
-  <si>
-    <t>记账 理财</t>
-  </si>
-  <si>
-    <t>之前为了记账，通过一番比较选择了口袋记账，这几天发现账单少了两百块，因为对口袋记账有些许不满，所以我又陷入了寻找记账APP的纠结之路。下面我通过对大多数的APP的下载使用后的体验，让广大像我一样的选择困难症患者提供较好的选择。</t>
-  </si>
-  <si>
-    <t>../../../../myArticle/20210518.html</t>
-  </si>
-  <si>
-    <t>https://z3.ax1x.com/2021/05/18/ghBdGd.jpg</t>
-  </si>
-  <si>
-    <t>本科毕业设计（论文）记录</t>
-  </si>
-  <si>
-    <t>2020-11-07</t>
-  </si>
-  <si>
-    <t>毕业设计</t>
-  </si>
-  <si>
-    <t>本科毕业设计已经开始了，我的选题是饶毅恒老师的基于Android的模拟单片机控制系统，课题是偏向于嵌入式软件的。估计要经历较长的时间，也要付出较多的心力。本篇博客将全程记录毕业设计的大致过程，致于需要学习的Java和Android开发则单独讲述，本篇博客不涉及技术方面的内容。</t>
-  </si>
-  <si>
-    <t>../../../../myArticle/20201107.html</t>
-  </si>
-  <si>
-    <t>https://s1.ax1x.com/2020/11/07/BInmm4.jpg</t>
-  </si>
-  <si>
-    <t>typora样式参考</t>
-  </si>
-  <si>
-    <t>2020-10-27</t>
-  </si>
-  <si>
-    <t>Typora</t>
-  </si>
-  <si>
-    <t>Typora扩展了Markdown的功能（如表格、脚注、内嵌HTML等等），以使让Markdown转换并导出更多的格式，其中就有我需要的HTML，通过在Typora上面写文档并导出HTML，可以方便的编写博客。简而言之，Typora能让你如在Word上面写文档一样写自己的网页。</t>
-  </si>
-  <si>
-    <t>../../../../myArticle/20201027.html</t>
-  </si>
-  <si>
-    <t>https://s1.ax1x.com/2020/10/29/BGD2Sx.jpg</t>
-  </si>
-  <si>
-    <t>C语言中的strlen和sizeof</t>
-  </si>
-  <si>
-    <t>2020-11-08</t>
-  </si>
-  <si>
-    <t>C语言</t>
-  </si>
-  <si>
-    <t>strlen和sizeof是平时及面试中是十分常见的，本文将讲述C语言中strlen和sizeof的用法和区别，并写出两者的区别和常见的错误，目的是是自己更加了解strlen和sizeof的使用。</t>
-  </si>
-  <si>
-    <t>../../../../myArticle/20201108.html</t>
-  </si>
-  <si>
-    <t>https://s1.ax1x.com/2020/11/08/Boq6PI.png</t>
-  </si>
-  <si>
-    <t>Java基础</t>
-  </si>
-  <si>
-    <t>2020-11-10</t>
-  </si>
-  <si>
-    <t>Java</t>
-  </si>
-  <si>
-    <t>因为毕业设计需要Java，所以我最近在学习Java。这篇博客主要写的一些Java的基础，内容比较简单，主要写一些Java的基础中与C语言不同的点。</t>
-  </si>
-  <si>
-    <t>../../../../myArticle/20201110.html</t>
-  </si>
-  <si>
-    <t>https://i.loli.net/2020/11/10/quwGS8UEbFWVRci.jpg</t>
-  </si>
-  <si>
-    <t>Java面向对象（基础）</t>
-  </si>
-  <si>
-    <t>2020-11-15</t>
-  </si>
-  <si>
-    <t>java</t>
-  </si>
-  <si>
-    <t>本文总结了一些Java的面向对象的内容，主要总结自己学习过程中觉得重要的知识点！</t>
-  </si>
-  <si>
-    <t>../../../../myArticle/20201115.html</t>
-  </si>
-  <si>
-    <t>https://s3.ax1x.com/2020/11/19/DMpuSe.jpg</t>
-  </si>
-  <si>
-    <t>C语言中的头文件及编译过程</t>
-  </si>
-  <si>
-    <t>2021-02-09</t>
-  </si>
-  <si>
-    <t>本文将详解C语言中的头文件（.h）和源文件（.c）的联系与使用，并详解编译器是怎样处理这些文件的，C语言的编译过程的详解。预处理命令不是C语言语句，不用加分号。本质上，预处理命令在预处理时只是进行文本替换。</t>
-  </si>
-  <si>
-    <t>../../../../myArticle/20210209.html</t>
-  </si>
-  <si>
-    <t>https://i.loli.net/2021/02/09/uxwo4g5tm8BerXs.jpg</t>
-  </si>
-  <si>
-    <t>C语言中的常见问题</t>
-  </si>
-  <si>
-    <t>2021-04-29</t>
-  </si>
-  <si>
-    <t>本文将记录C语言中的重点和易错点，而且这些内容都是经常使用的。学会并记录是十分必要的，许多企业的笔试面试都会涉及其中的内容。</t>
-  </si>
-  <si>
-    <t>../../../../myArticle/20210429.html</t>
-  </si>
-  <si>
-    <t>https://z3.ax1x.com/2021/04/29/gkY0Qf.jpg</t>
-  </si>
-  <si>
-    <t>C语言中的指针</t>
-  </si>
-  <si>
-    <t>2021-04-30</t>
-  </si>
-  <si>
-    <t>在Ｃ语言中，指针是非常重要知识点，本文将简单介绍一下其内容。Ｃ语言中用一个变量来存放指针，这种变量称为指针变量。因此，一个指针变量的值就是某个内存单元的地址或称为某内存单元的指针。</t>
-  </si>
-  <si>
-    <t>../../../../myArticle/20210430.html</t>
-  </si>
-  <si>
-    <t>https://z3.ax1x.com/2021/04/30/gA6fFx.jpg</t>
-  </si>
-  <si>
-    <t>C语言基础</t>
-  </si>
-  <si>
-    <t>记录C语言基础中的难点和易错点，但不包括多维数组、指针、结构体等难点。</t>
-  </si>
-  <si>
-    <t>../../../../myArticle/20210430-1.html</t>
-  </si>
-  <si>
-    <t>https://z3.ax1x.com/2021/04/30/gA64fK.jpg</t>
-  </si>
-  <si>
-    <t>Java的多线程</t>
-  </si>
-  <si>
-    <t>Java 多线程</t>
-  </si>
-  <si>
-    <t>Java为多线程编程提供了内置的支持，这使得程序员可以充分利用CPU，让程序的执行效率更高。本文将从零开始学习总结Java的多线程知识。</t>
-  </si>
-  <si>
-    <t>../../../../myArticle/20210430-2.html</t>
-  </si>
-  <si>
-    <t>https://z3.ax1x.com/2021/05/01/gVmvbn.jpg</t>
-  </si>
-  <si>
-    <t>Java数据库编程</t>
-  </si>
-  <si>
-    <t>Java 数据库</t>
-  </si>
-  <si>
-    <t>JDBC（Java Database Connectivity，Java数据库连接），是一种与平台无关的用于执行SQL语句的标准Java API，便于实现多种关系型数据库的统一操作。本文将记录Java与数据库间的操作，提别是MySQL数据库的连接与操作。</t>
-  </si>
-  <si>
-    <t>../../../../myArticle/20210430-3.html</t>
-  </si>
-  <si>
-    <t>https://z3.ax1x.com/2021/05/01/gVnFv4.jpg</t>
-  </si>
-  <si>
-    <t>Java网络编程</t>
-  </si>
-  <si>
-    <t>Java 网络</t>
-  </si>
-  <si>
-    <t>Java的网络编程提供了两种通信协议: TCP (传输控制协议)和UDP ( 数据报协议)。 本章将就这两种实现进行讲解，在讲解中也将融合之前讲解的I0及多线程技术进行网络程序的开发。</t>
-  </si>
-  <si>
-    <t>../../../../myArticle/20210430-4.html</t>
-  </si>
-  <si>
-    <t>https://z3.ax1x.com/2021/05/01/gVnVbR.jpg</t>
-  </si>
-  <si>
-    <t>如何在vscode优雅地使用Git来提交到Github</t>
-  </si>
-  <si>
-    <t>2022-02-19</t>
-  </si>
-  <si>
-    <t>工具</t>
-  </si>
-  <si>
-    <t>Git Github vscode</t>
-  </si>
-  <si>
-    <t>vscode结合Git来管理Github代码十分方便，本文简述如何对其进行配置。</t>
-  </si>
-  <si>
-    <t>../../../../myArticle/20220219.html</t>
-  </si>
-  <si>
-    <t>https://s4.ax1x.com/2022/02/19/Hbsvin.jpg</t>
-  </si>
-  <si>
-    <t>随便写点</t>
-  </si>
-  <si>
-    <t>2022-07-30</t>
-  </si>
-  <si>
-    <t>杂谈</t>
-  </si>
-  <si>
-    <t>信用 编程</t>
-  </si>
-  <si>
-    <t>距离上次写博客似乎也过去了将近半年，当初是打算起码一个月写一次的。但理想与现实还是有巨大差距的，想来普通人的近乎毫无波澜的人生似乎也没什么可写的，也难怪都说“正经人谁写日记？”</t>
-  </si>
-  <si>
-    <t>../../../../myArticle/20220730.html</t>
-  </si>
-  <si>
-    <t>https://gimg2.baidu.com/image_search/src=http%3A%2F%2Fcdnimg103.lizhi.fm%2Faudio_cover%2F2017%2F07%2F02%2F2610871928115860999_320x320.jpg&amp;refer=http%3A%2F%2Fcdnimg103.lizhi.fm&amp;app=2002&amp;size=f9999,10000&amp;q=a80&amp;n=0&amp;g=0n&amp;fmt=auto?sec=1661788778&amp;t=f98aba966cb7d7a538146e6b6524b012</t>
-  </si>
-  <si>
     <t>项链</t>
   </si>
   <si>
@@ -707,7 +760,7 @@
     <t>都德</t>
   </si>
   <si>
-    <t>《最后一课》讲述的是在普法战争中被普鲁士强行割让的一所乡村小学在上着告别自己母语的最后一堂课，通过一个孩子的眼光来展现整个沦陷区的屈辱和对自己故土的深切的思念。 《最后一课》取材精炼，文字简洁，主题明确，结构紧凑，每段每句都和题目紧相呼应，没有废话，没有闲文，这两千字可说是字字有作用，并且在字里行间蕴蓄了无限深远的意境。</t>
+    <t>《最后一课》讲述的是在普法战争中被普鲁士强行割让的一所乡村小学在上着告别自己母语的最后一堂课，通过一个孩子的眼光来展现整个沦陷区的屈辱和对自己故土的深切的思念。 《最后一课》取材精炼，文字简洁，主题明确，结构紧凑，每段每句都和题目紧相呼应，没有废话，没有闲文，</t>
   </si>
   <si>
     <t>../../../../article/zuihouyike.html</t>
@@ -1182,7 +1235,10 @@
   </si>
   <si>
     <t>每一个不曾起舞的日子都是对生命的辜负。
-其实人跟树是一样的，也是向往</t>
+其实人跟树是一样的，也是向往高处的阳光，他的根就越要伸向黑暗的天地。
+一个人知道自己为什么而活就可以忍受任何一种生活。
+凡是不能毁灭我的必使我强大。
+不能听命于自己者就要受命于他人。</t>
   </si>
   <si>
     <t>弗洛伊德</t>
@@ -1396,7 +1452,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1425,42 +1481,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1500,6 +1520,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1550,7 +1585,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1571,55 +1627,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1637,31 +1651,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1685,6 +1687,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1697,7 +1711,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1721,7 +1759,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1745,6 +1795,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1762,21 +1818,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1809,6 +1850,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1867,152 +1923,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2023,78 +2079,81 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -2421,12 +2480,12 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J33" sqref="J33"/>
+      <selection pane="bottomLeft" activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2436,12 +2495,13 @@
     <col min="3" max="3" width="11.775" style="11" customWidth="1"/>
     <col min="6" max="6" width="5.55833333333333" style="3" customWidth="1"/>
     <col min="7" max="7" width="6.10833333333333" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15.5" style="3" customWidth="1"/>
     <col min="9" max="9" width="39.6666666666667" style="3" customWidth="1"/>
     <col min="10" max="10" width="50.225" style="3" customWidth="1"/>
-    <col min="12" max="12" width="17.6666666666667" style="3" customWidth="1"/>
+    <col min="11" max="11" width="17.6666666666667" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2475,129 +2535,126 @@
       <c r="K1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>23</v>
-      </c>
-      <c r="J3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
         <v>25</v>
       </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>26</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>27</v>
-      </c>
-      <c r="J4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
         <v>29</v>
       </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>30</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>31</v>
-      </c>
-      <c r="J5" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
         <v>33</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>34</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
@@ -2606,725 +2663,795 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s">
         <v>35</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>36</v>
-      </c>
-      <c r="J6" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="9" t="s">
+      <c r="D7" t="s">
         <v>39</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>40</v>
       </c>
-      <c r="E7" t="s">
+      <c r="H7" t="s">
         <v>41</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>42</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>43</v>
-      </c>
-      <c r="J7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="9" t="s">
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
         <v>46</v>
       </c>
-      <c r="D8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="H8" t="s">
         <v>47</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>48</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>49</v>
-      </c>
-      <c r="J8" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="9" t="s">
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
         <v>52</v>
       </c>
-      <c r="D9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="H9" t="s">
         <v>53</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>54</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>55</v>
-      </c>
-      <c r="J9" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="9" t="s">
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s">
         <v>58</v>
       </c>
-      <c r="D10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="H10" t="s">
         <v>59</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>60</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>61</v>
-      </c>
-      <c r="J10" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s">
         <v>64</v>
       </c>
-      <c r="D11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="H11" t="s">
         <v>65</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>66</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>67</v>
-      </c>
-      <c r="J11" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" t="s">
         <v>70</v>
       </c>
-      <c r="D12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="H12" t="s">
         <v>71</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>72</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>73</v>
-      </c>
-      <c r="J12" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="9" t="s">
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" t="s">
         <v>76</v>
       </c>
-      <c r="D13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="H13" t="s">
         <v>77</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>78</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>79</v>
-      </c>
-      <c r="J13" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="9" t="s">
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" t="s">
         <v>82</v>
       </c>
-      <c r="D14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="H14" t="s">
         <v>83</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>84</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>85</v>
       </c>
-      <c r="J14" t="s">
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="9" t="s">
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" t="s">
         <v>88</v>
       </c>
-      <c r="D15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="H15" t="s">
         <v>89</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>90</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>91</v>
       </c>
-      <c r="J15" t="s">
-        <v>92</v>
-      </c>
-      <c r="L15"/>
+      <c r="K15"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="9" t="s">
+      <c r="D16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" t="s">
         <v>94</v>
       </c>
-      <c r="D16" t="s">
-        <v>89</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="H16" t="s">
         <v>95</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>96</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>97</v>
-      </c>
-      <c r="J16" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="9" t="s">
+      <c r="D17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" t="s">
         <v>100</v>
       </c>
-      <c r="D17" t="s">
-        <v>89</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="H17" t="s">
         <v>101</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>102</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>103</v>
-      </c>
-      <c r="J17" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="9" t="s">
+      <c r="D18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" t="s">
         <v>106</v>
       </c>
-      <c r="D18" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="H18" t="s">
         <v>107</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>108</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>109</v>
-      </c>
-      <c r="J18" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="9" t="s">
+      <c r="D19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" t="s">
         <v>112</v>
       </c>
-      <c r="D19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="H19" t="s">
         <v>113</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>114</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>115</v>
-      </c>
-      <c r="J19" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="B20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="9" t="s">
+      <c r="D20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" t="s">
         <v>118</v>
       </c>
-      <c r="D20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="H20" t="s">
         <v>119</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>120</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>121</v>
-      </c>
-      <c r="J20" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="9" t="s">
+      <c r="D21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" t="s">
         <v>124</v>
       </c>
-      <c r="D21" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="H21" t="s">
         <v>125</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>126</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>127</v>
-      </c>
-      <c r="J21" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
+        <v>128</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="9" t="s">
+      <c r="D22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" t="s">
         <v>130</v>
       </c>
-      <c r="D22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="H22" t="s">
         <v>131</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>132</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>133</v>
-      </c>
-      <c r="J22" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
+        <v>134</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="B23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="9" t="s">
+      <c r="D23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" t="s">
         <v>136</v>
       </c>
-      <c r="D23" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="H23" t="s">
         <v>137</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>138</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>139</v>
-      </c>
-      <c r="J23" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
+        <v>140</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="9" t="s">
+      <c r="D24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" t="s">
         <v>142</v>
       </c>
-      <c r="D24" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="H24" t="s">
         <v>143</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>144</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>145</v>
-      </c>
-      <c r="J24" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
+        <v>146</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="B25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>148</v>
-      </c>
       <c r="D25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
       <c r="H25" t="s">
+        <v>148</v>
+      </c>
+      <c r="I25" t="s">
         <v>149</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>150</v>
-      </c>
-      <c r="J25" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
+        <v>151</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="B26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="9" t="s">
+      <c r="D26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" t="s">
+        <v>130</v>
+      </c>
+      <c r="H26" t="s">
         <v>153</v>
       </c>
-      <c r="D26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" t="s">
-        <v>131</v>
-      </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>154</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>155</v>
-      </c>
-      <c r="J26" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
+        <v>156</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="B27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="9" t="s">
+      <c r="D27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" t="s">
+        <v>130</v>
+      </c>
+      <c r="H27" t="s">
         <v>158</v>
       </c>
-      <c r="D27" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" t="s">
-        <v>131</v>
-      </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>159</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>160</v>
-      </c>
-      <c r="J27" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
+        <v>161</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" t="s">
+        <v>130</v>
+      </c>
+      <c r="H28" t="s">
         <v>162</v>
       </c>
-      <c r="B28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="D28" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" t="s">
-        <v>131</v>
-      </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>163</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>164</v>
-      </c>
-      <c r="J28" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
+        <v>165</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" t="s">
         <v>166</v>
       </c>
-      <c r="B29" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="D29" t="s">
-        <v>40</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="H29" t="s">
         <v>167</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>168</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>169</v>
-      </c>
-      <c r="J29" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
+        <v>170</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D30" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" t="s">
         <v>171</v>
       </c>
-      <c r="B30" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="D30" t="s">
-        <v>40</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="H30" t="s">
         <v>172</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>173</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>174</v>
-      </c>
-      <c r="J30" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
+        <v>175</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D31" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" t="s">
         <v>176</v>
       </c>
-      <c r="B31" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="D31" t="s">
-        <v>40</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="H31" t="s">
         <v>177</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>178</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" s="5" t="s">
         <v>179</v>
-      </c>
-      <c r="J31" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
+        <v>180</v>
+      </c>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="B32" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="9" t="s">
+      <c r="D32" t="s">
         <v>182</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>183</v>
       </c>
-      <c r="E32" t="s">
+      <c r="H32" t="s">
         <v>184</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>185</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>186</v>
       </c>
-      <c r="J32" t="s">
+    </row>
+    <row r="33" ht="20" customHeight="1" spans="1:11">
+      <c r="A33" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="33" ht="20" customHeight="1" spans="1:12">
-      <c r="A33" t="s">
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="B33" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="9" t="s">
+      <c r="D33" t="s">
         <v>189</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>190</v>
       </c>
-      <c r="E33" t="s">
+      <c r="H33" t="s">
         <v>191</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>192</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="J33" s="12" t="s">
+      <c r="K33"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" t="s">
         <v>194</v>
       </c>
-      <c r="L33"/>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="D34" t="s">
+        <v>189</v>
+      </c>
+      <c r="E34" t="s">
+        <v>196</v>
+      </c>
+      <c r="H34" t="s">
+        <v>197</v>
+      </c>
+      <c r="I34" t="s">
+        <v>198</v>
+      </c>
+      <c r="J34" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="K34" t="s">
+        <v>200</v>
+      </c>
+      <c r="L34" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" t="s">
+        <v>201</v>
+      </c>
+      <c r="B35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="D35" t="s">
+        <v>189</v>
+      </c>
+      <c r="E35" t="s">
+        <v>203</v>
+      </c>
+      <c r="H35" t="s">
+        <v>204</v>
+      </c>
+      <c r="I35" t="s">
+        <v>205</v>
+      </c>
+      <c r="J35" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="K35" t="s">
+        <v>200</v>
+      </c>
+      <c r="L35" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="9:9">
+      <c r="I36"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J33" r:id="rId1" display="https://gimg2.baidu.com/image_search/src=http%3A%2F%2Fcdnimg103.lizhi.fm%2Faudio_cover%2F2017%2F07%2F02%2F2610871928115860999_320x320.jpg&amp;refer=http%3A%2F%2Fcdnimg103.lizhi.fm&amp;app=2002&amp;size=f9999,10000&amp;q=a80&amp;n=0&amp;g=0n&amp;fmt=auto?sec=1661788778&amp;t=f98aba966cb7d7a538146e6b6524b012"/>
+    <hyperlink ref="J31" r:id="rId1" display="https://z3.ax1x.com/2021/05/01/gVnVbR.jpg"/>
+    <hyperlink ref="J33" r:id="rId2" display="https://gimg2.baidu.com/image_search/src=http%3A%2F%2Fcdnimg103.lizhi.fm%2Faudio_cover%2F2017%2F07%2F02%2F2610871928115860999_320x320.jpg&amp;refer=http%3A%2F%2Fcdnimg103.lizhi.fm&amp;app=2002&amp;size=f9999,10000&amp;q=a80&amp;n=0&amp;g=0n&amp;fmt=auto?sec=1661788778&amp;t=f98aba966cb7d7a538146e6b6524b012"/>
+    <hyperlink ref="J34" r:id="rId3" display="https://img95.699pic.com/photo/40099/0313.jpg_wh860.jpg" tooltip="https://img95.699pic.com/photo/40099/0313.jpg_wh860.jpg"/>
+    <hyperlink ref="J35" r:id="rId4" display="https://ts1.cn.mm.bing.net/th/id/R-C.fdf65b06cf2650f2c98165d428bddac3?rik=GRWolzmfzXd55g&amp;riu=http%3a%2f%2fseopic.699pic.com%2fphoto%2f40010%2f1157.jpg_wh1200.jpg&amp;ehk=L45d%2bBT7MTzrBkS2l%2be828Lasd9xi5n6MtdpRPAPMiM%3d&amp;risl=&amp;pid=ImgRaw&amp;r=0"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3388,287 +3515,287 @@
         <v>10</v>
       </c>
       <c r="K1" t="s">
+        <v>207</v>
+      </c>
+      <c r="L1" t="s">
         <v>11</v>
-      </c>
-      <c r="L1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="B2" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="E2" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="H2" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="I2" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="J2" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="B3" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="E3" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="H3" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="I3" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="J3" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="B4" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="E4" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="H4" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="I4" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="J4" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="B5" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="E5" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="H5" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="I5" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="J5" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="B6" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="E6" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="H6" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="I6" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="J6" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="B7" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="E7" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="H7" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="I7" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="J7" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="B8" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="E8" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="H8" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="I8" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="J8" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="B9" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="E9" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="H9" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="I9" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="J9" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="B10" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="E10" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="H10" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="I10" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="J10" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="B11" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="E11" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="H11" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="I11" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="J11" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="B12" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="E12" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
@@ -3677,169 +3804,169 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="I12" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="J12" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="B13" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C13" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="D13" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="E13" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="H13" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="I13" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="J13" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="B14" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="C14" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H14" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="I14" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="J14" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="B15" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="C15" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="D15" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="E15" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="H15" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="I15" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="B16" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="C16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E16" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="H16" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="I16" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="J16" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="B17" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="C17" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E17" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="H17" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="I17" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="J17" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="B18" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E18" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="H18" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="I18" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="J18" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -3876,238 +4003,238 @@
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" ht="27" customHeight="1" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" ht="57" customHeight="1" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" ht="27" customHeight="1" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" ht="27" customHeight="1" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7" ht="27" customHeight="1" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" ht="48" customHeight="1" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9" ht="27" customHeight="1" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
     </row>
     <row r="10" ht="27" customHeight="1" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
     </row>
     <row r="11" ht="44" customHeight="1" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12" ht="27" customHeight="1" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
     </row>
     <row r="13" ht="42" customHeight="1" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
     </row>
     <row r="14" ht="27" customHeight="1" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
     </row>
     <row r="15" ht="40.5" customHeight="1" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
     </row>
     <row r="16" ht="27" customHeight="1" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
     </row>
     <row r="17" ht="40.5" customHeight="1" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
     </row>
     <row r="18" ht="40.5" customHeight="1" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
     </row>
     <row r="19" ht="40.5" customHeight="1" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
     </row>
     <row r="20" ht="40.5" customHeight="1" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
     </row>
     <row r="21" ht="27" customHeight="1" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
     </row>
     <row r="22" ht="54" customHeight="1" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -4127,8 +4254,8 @@
   <sheetPr/>
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -4148,293 +4275,293 @@
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" ht="40.5" customHeight="1" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
     </row>
     <row r="3" ht="40.5" customHeight="1" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4" ht="40.5" customHeight="1" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
     </row>
     <row r="5" ht="40.5" customHeight="1" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
     </row>
     <row r="6" ht="27" customHeight="1" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
     </row>
     <row r="7" ht="54" customHeight="1" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
     </row>
     <row r="8" ht="40.5" customHeight="1" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
     </row>
     <row r="9" ht="40.5" customHeight="1" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
     </row>
     <row r="10" ht="40.5" customHeight="1" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
     </row>
     <row r="11" ht="67.5" customHeight="1" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
     </row>
     <row r="12" ht="40.5" customHeight="1" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
     </row>
     <row r="13" ht="40.5" customHeight="1" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
     </row>
     <row r="14" ht="40.5" customHeight="1" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
     </row>
     <row r="15" ht="40.5" customHeight="1" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
     </row>
     <row r="16" ht="27" customHeight="1" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
     </row>
     <row r="17" ht="54" customHeight="1" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
     </row>
     <row r="18" ht="40.5" customHeight="1" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
     </row>
     <row r="19" ht="54" customHeight="1" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
     </row>
     <row r="20" ht="40.5" customHeight="1" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
     </row>
     <row r="21" ht="67.5" customHeight="1" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
     </row>
     <row r="22" ht="67.5" customHeight="1" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23" ht="27" customHeight="1" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
     </row>
     <row r="24" ht="67.5" customHeight="1" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
     </row>
     <row r="25" ht="67.5" customHeight="1" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
     </row>
     <row r="26" ht="67.5" customHeight="1" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
     </row>
     <row r="27" ht="67.5" customHeight="1" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>
@@ -4467,184 +4594,184 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>432</v>
+        <v>445</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7" ht="27" customHeight="1" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
     </row>
     <row r="8" ht="27" customHeight="1" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
     </row>
     <row r="22" ht="27" customHeight="1" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
     </row>
   </sheetData>
